--- a/biology/Zoologie/Les_Hommes_de_la_baleine/Les_Hommes_de_la_baleine.xlsx
+++ b/biology/Zoologie/Les_Hommes_de_la_baleine/Les_Hommes_de_la_baleine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hommes de la baleine est un film documentaire français réalisé par Mario Ruspoli, tourné en 1956 et sorti en 1958.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au large des îles des Açores, des pêcheurs chassent le cachalot en chaloupe et au harpon.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Hommes de la baleine
 Réalisation : Mario Ruspoli
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gilles Quéant : la voix du narrateur</t>
         </is>
@@ -615,7 +633,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1958 : Grand prix du film documentaire au Festival de Novisad (Yougoslavie)
 1958 : Grand prix au Festival international du film de Mar del Plata</t>
